--- a/Collections/EURO/Lithuania/#EURO#Lithuania#Regular#[2015-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Lithuania/#EURO#Lithuania#Regular#[2015-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Lithuania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Lithuania\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -368,7 +368,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="45">
   <si>
     <t>-</t>
   </si>
@@ -391,9 +391,6 @@
     <t>Subtype_2</t>
   </si>
   <si>
-    <t>Copper plated Steel</t>
-  </si>
-  <si>
     <t>1cent</t>
   </si>
   <si>
@@ -406,9 +403,6 @@
     <t>10cents</t>
   </si>
   <si>
-    <t>Brass</t>
-  </si>
-  <si>
     <t>20cents</t>
   </si>
   <si>
@@ -418,9 +412,6 @@
     <t>1€</t>
   </si>
   <si>
-    <t>Bi-Metallic</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -503,6 +494,15 @@
   </si>
   <si>
     <t>12.000.000</t>
+  </si>
+  <si>
+    <t>Obv: With mint logo - "LMK"</t>
+  </si>
+  <si>
+    <t>Rev: new map of Europe</t>
+  </si>
+  <si>
+    <t>Obv: "Vytis" from the Coat of arms of Lithuania</t>
   </si>
 </sst>
 </file>
@@ -779,7 +779,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -850,6 +850,15 @@
     <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -877,13 +886,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -892,15 +895,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1005,9 +1000,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="3"/>
-    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1278,18 +1273,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
@@ -1297,27 +1291,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1325,10 +1319,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1337,12 +1331,14 @@
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -1357,12 +1353,14 @@
         <v>2016</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="D4" s="9"/>
       <c r="E4" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F4" s="18">
         <v>0</v>
@@ -1377,12 +1375,14 @@
         <v>2017</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
@@ -1397,12 +1397,14 @@
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="36" t="s">
-        <v>32</v>
+      <c r="E6" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -1419,7 +1421,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1449,14 +1451,13 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
@@ -1464,27 +1465,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1492,10 +1493,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1504,12 +1505,14 @@
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -1532,7 +1535,7 @@
       <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="26" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -1548,12 +1551,14 @@
         <v>2017</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
@@ -1568,12 +1573,14 @@
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="36" t="s">
-        <v>32</v>
+      <c r="E6" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -1590,7 +1597,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1620,14 +1627,13 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6:D6"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
@@ -1635,27 +1641,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1663,10 +1669,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1675,12 +1681,14 @@
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -1703,7 +1711,7 @@
       <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="26" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -1727,7 +1735,7 @@
       <c r="D5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="26" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="18" t="s">
@@ -1743,12 +1751,14 @@
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="36" t="s">
-        <v>32</v>
+      <c r="E6" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -1765,7 +1775,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1795,14 +1805,13 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
@@ -1810,27 +1819,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1838,10 +1847,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1849,13 +1858,17 @@
       <c r="A3" s="7">
         <v>2015</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="E3" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -1878,7 +1891,7 @@
       <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="28" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -1893,13 +1906,17 @@
       <c r="A5" s="7">
         <v>2017</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="E5" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
@@ -1913,13 +1930,17 @@
       <c r="A6" s="7">
         <v>2018</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="36" t="s">
-        <v>32</v>
+      <c r="B6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -1936,7 +1957,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1966,14 +1987,13 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
@@ -1981,27 +2001,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2009,10 +2029,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -2020,13 +2040,17 @@
       <c r="A3" s="7">
         <v>2015</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="E3" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -2040,16 +2064,16 @@
       <c r="A4" s="7">
         <v>2016</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="35" t="s">
+      <c r="B4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -2064,13 +2088,17 @@
       <c r="A5" s="7">
         <v>2017</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="E5" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
@@ -2084,13 +2112,17 @@
       <c r="A6" s="7">
         <v>2018</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="36" t="s">
-        <v>32</v>
+      <c r="B6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -2107,7 +2139,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2137,14 +2169,13 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6:D6"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
@@ -2152,27 +2183,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2180,10 +2211,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -2191,13 +2222,17 @@
       <c r="A3" s="7">
         <v>2015</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="E3" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -2259,13 +2294,17 @@
       <c r="A6" s="7">
         <v>2018</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="E6" s="25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -2282,7 +2321,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2312,14 +2351,13 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6:D6"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
@@ -2327,27 +2365,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2355,10 +2393,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -2367,12 +2405,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="E3" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -2435,12 +2477,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="E6" s="25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -2457,7 +2503,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2483,7 +2529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2493,8 +2539,7 @@
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
@@ -2502,27 +2547,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2530,10 +2575,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -2542,12 +2587,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="E3" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -2561,16 +2610,16 @@
       <c r="A4" s="7">
         <v>2016</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="35" t="s">
+      <c r="B4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -2586,12 +2635,16 @@
         <v>2017</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="E5" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
@@ -2606,12 +2659,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="36" t="s">
-        <v>32</v>
+        <v>44</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -2628,7 +2685,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2670,13 +2727,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2684,10 +2741,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2695,10 +2752,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2706,10 +2763,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2717,10 +2774,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2728,10 +2785,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2739,10 +2796,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Lithuania/#EURO#Lithuania#Regular#[2015-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Lithuania/#EURO#Lithuania#Regular#[2015-present]#circulation_quality%varieties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Lithuania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Lithuania\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698FB968-FE29-4BF6-AAB0-2C42DACF19E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,12 +75,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -116,12 +117,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -158,12 +159,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -200,12 +201,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -221,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -242,12 +243,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -263,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -284,12 +285,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -305,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -326,12 +327,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -368,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="47">
   <si>
     <t>-</t>
   </si>
@@ -503,12 +504,18 @@
   </si>
   <si>
     <t>Obv: "Vytis" from the Coat of arms of Lithuania</t>
+  </si>
+  <si>
+    <t>6.000</t>
+  </si>
+  <si>
+    <t>5.006.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -779,7 +786,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -847,9 +854,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -857,6 +861,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -886,16 +893,213 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -993,16 +1197,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="26" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1270,27 +1474,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="A6:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
@@ -1309,7 +1513,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="4" t="s">
@@ -1326,14 +1530,14 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="9"/>
@@ -1348,14 +1552,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2016</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="9"/>
@@ -1370,14 +1574,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2017</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="9"/>
@@ -1392,18 +1596,18 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="18" t="s">
@@ -1411,6 +1615,50 @@
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" ref="G7:G8" si="1">IF(OR(AND(F7&gt;1,F7&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1421,12 +1669,12 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1437,171 +1685,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1619,28 +1725,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
@@ -1655,11 +1761,11 @@
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="4" t="s">
@@ -1676,29 +1782,29 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G3:G8" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2016</v>
       </c>
@@ -1711,7 +1817,7 @@
       <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -1722,23 +1828,21 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2017</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="18">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="str">
@@ -1746,24 +1850,68 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1774,12 +1922,63 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1797,49 +1996,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="37"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>10</v>
+      <c r="F1" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="36"/>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1854,31 +2053,29 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G3:G8" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2016</v>
       </c>
@@ -1891,7 +2088,7 @@
       <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -1902,23 +2099,23 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2017</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="18">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="str">
@@ -1926,26 +2123,68 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="27" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="26" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1956,12 +2195,63 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1979,49 +2269,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="A6:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>11</v>
+      <c r="F1" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2036,14 +2326,14 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -2056,24 +2346,24 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G3:G8" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2016</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="26" t="s">
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -2084,21 +2374,21 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2017</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
@@ -2108,26 +2398,74 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2138,12 +2476,63 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2161,28 +2550,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
@@ -2197,11 +2586,11 @@
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="4" t="s">
@@ -2218,44 +2607,44 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G3:G8" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2016</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -2266,23 +2655,23 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2017</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="18">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="str">
@@ -2290,26 +2679,74 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="26" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2320,12 +2757,63 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2343,28 +2831,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
@@ -2378,12 +2866,12 @@
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>13</v>
+      <c r="F1" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="4" t="s">
@@ -2400,31 +2888,31 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G3:G8" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2016</v>
       </c>
@@ -2448,7 +2936,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2017</v>
       </c>
@@ -2472,26 +2960,74 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="26" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2502,12 +3038,63 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2525,28 +3112,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
@@ -2561,11 +3148,11 @@
         <v>4</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="4" t="s">
@@ -2582,44 +3169,44 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G3:G8" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2016</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="26" t="s">
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -2630,23 +3217,23 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2017</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="18">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="str">
@@ -2654,26 +3241,74 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2684,12 +3319,63 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2707,8 +3393,272 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" ref="G7:G8" si="1">IF(OR(AND(F7&gt;1,F7&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2718,14 +3668,14 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
@@ -2736,7 +3686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -2747,7 +3697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -2758,7 +3708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -2769,7 +3719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -2780,7 +3730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -2791,7 +3741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -2804,12 +3754,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B5" r:id="rId6" display="https://coinsplanet.ru/upload/013/u1372/001/9e08e8ac.jpg"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B5" r:id="rId6" display="https://coinsplanet.ru/upload/013/u1372/001/9e08e8ac.jpg" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>

--- a/Collections/EURO/Lithuania/#EURO#Lithuania#Regular#[2015-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Lithuania/#EURO#Lithuania#Regular#[2015-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Lithuania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Lithuania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698FB968-FE29-4BF6-AAB0-2C42DACF19E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9078C070-D09A-45BD-9E3A-BEAA4E9367C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -369,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="51">
   <si>
     <t>-</t>
   </si>
@@ -509,14 +518,29 @@
     <t>6.000</t>
   </si>
   <si>
-    <t>5.006.000</t>
+    <t>5.000.000</t>
+  </si>
+  <si>
+    <t>3.000.000</t>
+  </si>
+  <si>
+    <t>7.000</t>
+  </si>
+  <si>
+    <t>2.000.000</t>
+  </si>
+  <si>
+    <t>8.000.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -580,6 +604,20 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="8">
@@ -786,7 +824,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -893,13 +931,95 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1109,70 +1229,6 @@
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1204,9 +1260,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="26" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="36" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1475,26 +1531,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="A6:G8"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
@@ -1513,7 +1569,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="4" t="s">
@@ -1530,7 +1586,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2015</v>
       </c>
@@ -1552,7 +1608,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2016</v>
       </c>
@@ -1574,7 +1630,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2017</v>
       </c>
@@ -1596,7 +1652,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2018</v>
       </c>
@@ -1618,7 +1674,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2019</v>
       </c>
@@ -1640,7 +1696,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2020</v>
       </c>
@@ -1661,6 +1717,97 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" ref="G9:G11" si="2">IF(OR(AND(F9&gt;1,F9&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+    </row>
+    <row r="17" spans="12:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+    </row>
+    <row r="18" spans="12:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1668,8 +1815,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1686,7 +1834,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1702,12 +1850,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F8:F11">
+    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="F8:F11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1727,26 +1875,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:G8"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
@@ -1765,7 +1913,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="4" t="s">
@@ -1782,7 +1930,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2015</v>
       </c>
@@ -1804,7 +1952,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2016</v>
       </c>
@@ -1828,7 +1976,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2017</v>
       </c>
@@ -1850,7 +1998,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2018</v>
       </c>
@@ -1872,7 +2020,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2019</v>
       </c>
@@ -1894,7 +2042,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2020</v>
       </c>
@@ -1915,6 +2063,87 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" ref="G9:G11" si="1">IF(OR(AND(F9&gt;1,F9&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P13" s="38"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P14" s="38"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P15" s="38"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P16" s="38"/>
+    </row>
+    <row r="17" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P17" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1922,8 +2151,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1940,7 +2170,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1957,7 +2187,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1973,12 +2203,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F8:F11">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="F8:F11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1998,26 +2228,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:G8"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10:P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
@@ -2036,7 +2266,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="4" t="s">
@@ -2053,7 +2283,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2015</v>
       </c>
@@ -2075,7 +2305,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2016</v>
       </c>
@@ -2099,7 +2329,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2017</v>
       </c>
@@ -2123,7 +2353,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2018</v>
       </c>
@@ -2145,7 +2375,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2019</v>
       </c>
@@ -2167,7 +2397,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2020</v>
       </c>
@@ -2186,6 +2416,72 @@
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" ref="G9" si="1">IF(OR(AND(F9&gt;1,F9&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f t="shared" ref="G10:G11" si="2">IF(OR(AND(F10&gt;1,F10&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2196,7 +2492,792 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F11">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:R14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="Q14" sqref="M10:Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="34"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f t="shared" ref="G3:G8" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" ref="G9:G11" si="1">IF(OR(AND(F9&gt;1,F9&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R10" s="38"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R11" s="38"/>
+    </row>
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R12" s="38"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R13" s="38"/>
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R14" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8 F10">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8 F10">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14:R18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f t="shared" ref="G3:G8" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" ref="G9:G11" si="1">IF(OR(AND(F9&gt;1,F9&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S14" s="38"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S15" s="38"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S16" s="38"/>
+    </row>
+    <row r="17" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S17" s="38"/>
+    </row>
+    <row r="18" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S18" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2213,7 +3294,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2230,7 +3311,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2246,12 +3327,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F8:F11">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="F8:F11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2269,49 +3350,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G8"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="A6:G8"/>
+      <selection pane="bottomRight" activeCell="S13" sqref="M13:S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="37"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>10</v>
+      <c r="F1" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="36"/>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2326,7 +3407,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2015</v>
       </c>
@@ -2340,7 +3421,7 @@
         <v>43</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -2350,7 +3431,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2016</v>
       </c>
@@ -2363,7 +3444,7 @@
       <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -2374,23 +3455,23 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2017</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="18">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="str">
@@ -2398,7 +3479,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2018</v>
       </c>
@@ -2422,7 +3503,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2019</v>
       </c>
@@ -2446,7 +3527,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2020</v>
       </c>
@@ -2469,6 +3550,93 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" ref="G9:G11" si="1">IF(OR(AND(F9&gt;1,F9&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T13" s="38"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T14" s="38"/>
+    </row>
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T15" s="38"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T16" s="38"/>
+    </row>
+    <row r="17" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T17" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2476,8 +3644,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2494,7 +3663,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2511,7 +3680,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2527,12 +3696,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F8:F11">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="F8:F11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2550,28 +3719,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G8"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:G8"/>
+      <selection pane="bottomRight" activeCell="S19" sqref="L15:S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
@@ -2585,12 +3754,12 @@
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>11</v>
+      <c r="F1" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="4" t="s">
@@ -2607,7 +3776,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2015</v>
       </c>
@@ -2631,20 +3800,20 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2016</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="25" t="s">
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -2655,23 +3824,23 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2017</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="18">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="str">
@@ -2679,7 +3848,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2018</v>
       </c>
@@ -2703,7 +3872,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2019</v>
       </c>
@@ -2727,7 +3896,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2020</v>
       </c>
@@ -2750,6 +3919,93 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" ref="G9:G11" si="1">IF(OR(AND(F9&gt;1,F9&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T15" s="39"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T16" s="38"/>
+    </row>
+    <row r="17" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T17" s="38"/>
+    </row>
+    <row r="18" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T18" s="38"/>
+    </row>
+    <row r="19" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T19" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2757,8 +4013,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2775,7 +4032,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2792,7 +4049,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2808,12 +4065,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F8:F11">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="F8:F11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2831,28 +4088,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G8"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:G8"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18:S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
@@ -2866,12 +4123,12 @@
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>12</v>
+      <c r="F1" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="4" t="s">
@@ -2888,7 +4145,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2015</v>
       </c>
@@ -2902,30 +4159,30 @@
         <v>43</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G8" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2016</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -2936,23 +4193,23 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2017</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="18">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="str">
@@ -2960,7 +4217,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2018</v>
       </c>
@@ -2984,7 +4241,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2019</v>
       </c>
@@ -2997,18 +4254,18 @@
       <c r="D7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="18">
         <v>0</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G7:G8" si="1">IF(OR(AND(F7&gt;1,F7&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2020</v>
       </c>
@@ -3021,16 +4278,118 @@
       <c r="D8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="18">
         <v>0</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" ref="G9:G11" si="2">IF(OR(AND(F9&gt;1,F9&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="10:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="U17" s="38"/>
+    </row>
+    <row r="18" spans="10:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="38"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="38"/>
+    </row>
+    <row r="19" spans="10:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+    </row>
+    <row r="20" spans="10:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+    </row>
+    <row r="21" spans="10:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+    </row>
+    <row r="22" spans="10:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3038,12 +4397,30 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F5">
-    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="*-">
+  <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F5">
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7 F9">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9 F7">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3055,12 +4432,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3072,12 +4449,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="F10">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3089,557 +4466,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G8" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F3:F5">
-    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F5">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <f t="shared" ref="G7:G8" si="1">IF(OR(AND(F7&gt;1,F7&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="18">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="F11">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3668,14 +4500,14 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
@@ -3686,7 +4518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -3697,7 +4529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -3708,7 +4540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -3719,7 +4551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -3730,7 +4562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -3741,7 +4573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>6</v>
       </c>

--- a/Collections/EURO/Lithuania/#EURO#Lithuania#Regular#[2015-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Lithuania/#EURO#Lithuania#Regular#[2015-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Lithuania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9078C070-D09A-45BD-9E3A-BEAA4E9367C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B698ADCB-7488-481A-8636-125ADD17FF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="730" yWindow="890" windowWidth="28830" windowHeight="17610" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -386,9 +386,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -531,6 +528,9 @@
   </si>
   <si>
     <t>8.000.000</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -664,7 +664,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -760,30 +760,6 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
@@ -824,7 +800,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -889,7 +865,7 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -904,6 +880,8 @@
     <xf numFmtId="3" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -916,12 +894,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -931,8 +903,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -940,6 +910,15 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="38">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1220,15 +1199,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1260,9 +1230,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="36" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1533,11 +1503,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1551,38 +1521,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1591,14 +1561,14 @@
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -1613,14 +1583,14 @@
         <v>2016</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="18">
         <v>0</v>
@@ -1635,14 +1605,14 @@
         <v>2017</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
@@ -1657,14 +1627,14 @@
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -1679,14 +1649,14 @@
         <v>2019</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>0</v>
@@ -1701,14 +1671,14 @@
         <v>2020</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>0</v>
@@ -1723,14 +1693,14 @@
         <v>2021</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>0</v>
@@ -1745,14 +1715,14 @@
         <v>2022</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>0</v>
@@ -1767,14 +1737,14 @@
         <v>2023</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>0</v>
@@ -1785,29 +1755,29 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
     </row>
     <row r="17" spans="12:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
     </row>
     <row r="18" spans="12:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1817,7 +1787,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="34" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1834,7 +1804,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1851,7 +1821,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F11">
-    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1881,7 +1851,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1895,38 +1865,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1935,14 +1905,14 @@
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -1981,14 +1951,14 @@
         <v>2017</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
@@ -2003,14 +1973,14 @@
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -2025,14 +1995,14 @@
         <v>2019</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>0</v>
@@ -2047,14 +2017,14 @@
         <v>2020</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>0</v>
@@ -2069,14 +2039,14 @@
         <v>2021</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>0</v>
@@ -2091,14 +2061,14 @@
         <v>2022</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>0</v>
@@ -2113,14 +2083,14 @@
         <v>2023</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>0</v>
@@ -2131,19 +2101,19 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="P13" s="38"/>
+      <c r="P13" s="29"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="P14" s="38"/>
+      <c r="P14" s="29"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="P15" s="38"/>
+      <c r="P15" s="29"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="P16" s="38"/>
+      <c r="P16" s="29"/>
     </row>
     <row r="17" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="P17" s="38"/>
+      <c r="P17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2153,7 +2123,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2170,7 +2140,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2187,7 +2157,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2204,7 +2174,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F11">
-    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2234,7 +2204,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10:P14"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2248,38 +2218,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -2288,14 +2258,14 @@
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -2358,14 +2328,14 @@
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -2380,14 +2350,14 @@
         <v>2019</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>0</v>
@@ -2402,14 +2372,14 @@
         <v>2020</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>0</v>
@@ -2424,14 +2394,14 @@
         <v>2021</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="18">
         <v>0</v>
@@ -2446,14 +2416,14 @@
         <v>2022</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="18">
         <v>0</v>
@@ -2468,14 +2438,14 @@
         <v>2023</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="18">
         <v>0</v>
@@ -2492,7 +2462,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2509,7 +2479,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2526,7 +2496,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2543,7 +2513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2560,7 +2530,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F11">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2590,7 +2560,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q14" sqref="M10:Q14"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2604,38 +2574,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="36"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -2644,16 +2614,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -2692,16 +2662,16 @@
         <v>2017</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
@@ -2716,16 +2686,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E6" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -2740,16 +2710,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>45</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>0</v>
@@ -2764,16 +2734,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>45</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>0</v>
@@ -2788,16 +2758,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E9" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="18">
         <v>0</v>
@@ -2812,16 +2782,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>0</v>
@@ -2830,23 +2800,23 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R10" s="38"/>
+      <c r="R10" s="29"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2023</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E11" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="18">
         <v>0</v>
@@ -2855,16 +2825,16 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R11" s="38"/>
+      <c r="R11" s="29"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="R12" s="38"/>
+      <c r="R12" s="29"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="R13" s="38"/>
+      <c r="R13" s="29"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="R14" s="38"/>
+      <c r="R14" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2874,7 +2844,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2891,7 +2861,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2908,7 +2878,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2925,11 +2895,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8 F10">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8 F10">
+  <conditionalFormatting sqref="F10 F8">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2942,7 +2912,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2959,7 +2929,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2989,7 +2959,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14:R18"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3003,38 +2973,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -3043,16 +3013,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -3091,16 +3061,16 @@
         <v>2017</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
@@ -3115,16 +3085,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E6" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -3139,16 +3109,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>45</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>0</v>
@@ -3163,16 +3133,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>45</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>0</v>
@@ -3187,16 +3157,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>45</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>0</v>
@@ -3211,16 +3181,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>0</v>
@@ -3235,16 +3205,16 @@
         <v>2023</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E11" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>0</v>
@@ -3255,19 +3225,19 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S14" s="38"/>
+      <c r="S14" s="29"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S15" s="38"/>
+      <c r="S15" s="29"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S16" s="38"/>
+      <c r="S16" s="29"/>
     </row>
     <row r="17" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S17" s="38"/>
+      <c r="S17" s="29"/>
     </row>
     <row r="18" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S18" s="38"/>
+      <c r="S18" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3277,7 +3247,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3294,7 +3264,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3311,7 +3281,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3328,7 +3298,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F11">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3358,7 +3328,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S13" sqref="M13:S17"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3372,38 +3342,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -3412,16 +3382,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -3484,16 +3454,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E6" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -3508,16 +3478,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>45</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>0</v>
@@ -3532,16 +3502,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>45</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>0</v>
@@ -3556,16 +3526,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>45</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>0</v>
@@ -3580,16 +3550,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>0</v>
@@ -3604,16 +3574,16 @@
         <v>2023</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E11" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>0</v>
@@ -3624,19 +3594,19 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T13" s="38"/>
+      <c r="T13" s="29"/>
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T14" s="38"/>
+      <c r="T14" s="29"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T15" s="38"/>
+      <c r="T15" s="29"/>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T16" s="38"/>
+      <c r="T16" s="29"/>
     </row>
     <row r="17" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T17" s="39"/>
+      <c r="T17" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3646,7 +3616,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3663,7 +3633,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3680,7 +3650,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3697,7 +3667,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F11">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3727,7 +3697,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S19" sqref="L15:S19"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3741,38 +3711,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -3781,16 +3751,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -3853,16 +3823,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E6" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -3877,16 +3847,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>45</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>0</v>
@@ -3901,16 +3871,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>45</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>0</v>
@@ -3925,16 +3895,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>45</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>0</v>
@@ -3949,16 +3919,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>0</v>
@@ -3973,16 +3943,16 @@
         <v>2023</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E11" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>0</v>
@@ -3993,19 +3963,19 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T15" s="39"/>
+      <c r="T15" s="30"/>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T16" s="38"/>
+      <c r="T16" s="29"/>
     </row>
     <row r="17" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T17" s="38"/>
+      <c r="T17" s="29"/>
     </row>
     <row r="18" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T18" s="38"/>
+      <c r="T18" s="29"/>
     </row>
     <row r="19" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T19" s="39"/>
+      <c r="T19" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4015,7 +3985,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4032,7 +4002,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4049,7 +4019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4066,7 +4036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F11">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4092,11 +4062,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18:S22"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4110,38 +4080,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -4150,16 +4120,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -4198,16 +4168,16 @@
         <v>2017</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
@@ -4222,16 +4192,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E6" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -4246,16 +4216,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="18">
         <v>0</v>
@@ -4270,16 +4240,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="18">
         <v>0</v>
@@ -4294,16 +4264,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E9" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="18">
         <v>0</v>
@@ -4318,16 +4288,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>0</v>
@@ -4342,16 +4312,16 @@
         <v>2023</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E11" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>0</v>
@@ -4362,34 +4332,34 @@
       </c>
     </row>
     <row r="17" spans="10:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="U17" s="38"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="U17" s="29"/>
     </row>
     <row r="18" spans="10:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J18" s="38"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="38"/>
+      <c r="J18" s="29"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="29"/>
     </row>
     <row r="19" spans="10:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
+      <c r="J19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
     </row>
     <row r="20" spans="10:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
+      <c r="J20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
     </row>
     <row r="21" spans="10:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
+      <c r="J21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
     </row>
     <row r="22" spans="10:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
+      <c r="J22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4399,7 +4369,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4416,11 +4386,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 F9">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9 F7">
+  <conditionalFormatting sqref="F7 F9">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4433,7 +4403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4450,7 +4420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4467,7 +4437,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4509,13 +4479,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4523,10 +4493,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4534,10 +4504,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4545,10 +4515,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4556,10 +4526,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4567,10 +4537,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4578,10 +4548,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Lithuania/#EURO#Lithuania#Regular#[2015-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Lithuania/#EURO#Lithuania#Regular#[2015-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Lithuania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B698ADCB-7488-481A-8636-125ADD17FF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BE8059-B4AE-47F9-BCE3-7F726E4CE821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="730" yWindow="890" windowWidth="28830" windowHeight="17610" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -378,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="52">
   <si>
     <t>-</t>
   </si>
@@ -392,12 +402,6 @@
     <t>Mintage</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>1cent</t>
   </si>
   <si>
@@ -531,6 +535,15 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Map_of_Europe</t>
   </si>
 </sst>
 </file>
@@ -800,7 +813,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -882,6 +895,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1503,56 +1519,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31" t="s">
+        <v>48</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1561,14 +1577,14 @@
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -1583,14 +1599,14 @@
         <v>2016</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="18">
         <v>0</v>
@@ -1605,14 +1621,14 @@
         <v>2017</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
@@ -1627,14 +1643,14 @@
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -1649,14 +1665,14 @@
         <v>2019</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>0</v>
@@ -1671,14 +1687,14 @@
         <v>2020</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>0</v>
@@ -1693,14 +1709,14 @@
         <v>2021</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>0</v>
@@ -1715,14 +1731,14 @@
         <v>2022</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>0</v>
@@ -1737,14 +1753,14 @@
         <v>2023</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>0</v>
@@ -1780,9 +1796,9 @@
       <c r="N18" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -1851,52 +1867,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31" t="s">
+        <v>48</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1905,14 +1921,14 @@
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -1951,14 +1967,14 @@
         <v>2017</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
@@ -1973,14 +1989,14 @@
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -1995,14 +2011,14 @@
         <v>2019</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>0</v>
@@ -2017,14 +2033,14 @@
         <v>2020</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>0</v>
@@ -2039,14 +2055,14 @@
         <v>2021</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>0</v>
@@ -2061,14 +2077,14 @@
         <v>2022</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>0</v>
@@ -2083,14 +2099,14 @@
         <v>2023</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>0</v>
@@ -2116,9 +2132,9 @@
       <c r="P17" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -2204,52 +2220,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31" t="s">
+        <v>48</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -2258,14 +2274,14 @@
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -2328,14 +2344,14 @@
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -2350,14 +2366,14 @@
         <v>2019</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>0</v>
@@ -2372,14 +2388,14 @@
         <v>2020</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>0</v>
@@ -2394,14 +2410,14 @@
         <v>2021</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F9" s="18">
         <v>0</v>
@@ -2416,14 +2432,14 @@
         <v>2022</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="18">
         <v>0</v>
@@ -2438,14 +2454,14 @@
         <v>2023</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" s="18">
         <v>0</v>
@@ -2456,9 +2472,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F5">
@@ -2560,52 +2576,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="31" t="s">
+        <v>48</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -2614,16 +2630,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -2662,16 +2678,16 @@
         <v>2017</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
@@ -2686,16 +2702,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -2710,16 +2726,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>44</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>0</v>
@@ -2734,16 +2750,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>44</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>0</v>
@@ -2758,16 +2774,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F9" s="18">
         <v>0</v>
@@ -2782,16 +2798,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>0</v>
@@ -2807,16 +2823,16 @@
         <v>2023</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="F11" s="18">
         <v>0</v>
@@ -2837,9 +2853,9 @@
       <c r="R14" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -2899,7 +2915,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10 F8">
+  <conditionalFormatting sqref="F8 F10">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2959,52 +2975,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="31" t="s">
+        <v>48</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -3013,16 +3029,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -3061,16 +3077,16 @@
         <v>2017</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
@@ -3085,16 +3101,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -3109,16 +3125,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>44</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>0</v>
@@ -3133,16 +3149,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>44</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>0</v>
@@ -3157,16 +3173,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>44</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>0</v>
@@ -3181,16 +3197,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>0</v>
@@ -3205,16 +3221,16 @@
         <v>2023</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>0</v>
@@ -3240,9 +3256,9 @@
       <c r="S18" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -3328,52 +3344,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="31" t="s">
+        <v>48</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -3382,16 +3398,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -3454,16 +3470,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -3478,16 +3494,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>44</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>0</v>
@@ -3502,16 +3518,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>44</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>0</v>
@@ -3526,16 +3542,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>44</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>0</v>
@@ -3550,16 +3566,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>0</v>
@@ -3574,16 +3590,16 @@
         <v>2023</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>0</v>
@@ -3609,9 +3625,9 @@
       <c r="T17" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -3697,52 +3713,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="31" t="s">
+        <v>48</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -3751,16 +3767,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -3823,16 +3839,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -3847,16 +3863,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>44</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>0</v>
@@ -3871,16 +3887,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>44</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>0</v>
@@ -3895,16 +3911,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>44</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>0</v>
@@ -3919,16 +3935,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>0</v>
@@ -3943,16 +3959,16 @@
         <v>2023</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>0</v>
@@ -3978,9 +3994,9 @@
       <c r="T19" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -4062,56 +4078,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="31" t="s">
+        <v>48</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -4120,16 +4136,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -4168,16 +4184,16 @@
         <v>2017</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
@@ -4192,16 +4208,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>0</v>
@@ -4216,16 +4232,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="F7" s="18">
         <v>0</v>
@@ -4240,16 +4256,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="F8" s="18">
         <v>0</v>
@@ -4264,16 +4280,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="F9" s="18">
         <v>0</v>
@@ -4288,16 +4304,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>0</v>
@@ -4312,16 +4328,16 @@
         <v>2023</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>0</v>
@@ -4362,9 +4378,9 @@
       <c r="U22" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -4390,7 +4406,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7 F9">
+  <conditionalFormatting sqref="F9 F7">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4479,13 +4495,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4493,10 +4509,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4504,10 +4520,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4515,10 +4531,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4526,10 +4542,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4537,10 +4553,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4548,10 +4564,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
